--- a/subRE/medidasFiltros.xlsx
+++ b/subRE/medidasFiltros.xlsx
@@ -393,8 +393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E162" workbookViewId="0">
-      <selection activeCell="T173" sqref="T173"/>
+    <sheetView tabSelected="1" topLeftCell="P162" workbookViewId="0">
+      <selection activeCell="V173" sqref="V173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/subRE/medidasFiltros.xlsx
+++ b/subRE/medidasFiltros.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>Autonivel</t>
   </si>
@@ -55,8 +55,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.000000"/>
+    <numFmt numFmtId="168" formatCode="0.0000000"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -101,16 +104,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:S174"/>
+  <dimension ref="A2:S171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P162" workbookViewId="0">
-      <selection activeCell="V173" sqref="V173"/>
+    <sheetView tabSelected="1" topLeftCell="E152" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:M169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,6 +490,9 @@
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4"/>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
       <c r="F4">
         <v>0.30525299734923012</v>
       </c>
@@ -529,6 +538,9 @@
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5"/>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
       <c r="F5">
         <v>0.41112474694000922</v>
       </c>
@@ -574,8 +586,8 @@
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6"/>
-      <c r="E6">
-        <v>0.66289950324269753</v>
+      <c r="E6" s="7">
+        <v>1</v>
       </c>
       <c r="F6">
         <v>0.26749776622145649</v>
@@ -622,8 +634,8 @@
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7"/>
-      <c r="E7">
-        <v>-0.75126102078020429</v>
+      <c r="E7" s="7">
+        <v>1</v>
       </c>
       <c r="F7">
         <v>0.45019209850385938</v>
@@ -670,6 +682,9 @@
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8"/>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
       <c r="F8">
         <v>0.37885016611226069</v>
       </c>
@@ -715,6 +730,9 @@
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9"/>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
       <c r="F9">
         <v>0.46520255550630191</v>
       </c>
@@ -760,8 +778,8 @@
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10"/>
-      <c r="E10">
-        <v>0.40203343141658338</v>
+      <c r="E10" s="7">
+        <v>1</v>
       </c>
       <c r="F10">
         <v>0.22967769940217531</v>
@@ -808,8 +826,8 @@
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11"/>
-      <c r="E11">
-        <v>0.27085780478235372</v>
+      <c r="E11" s="7">
+        <v>1</v>
       </c>
       <c r="F11">
         <v>0.22107935317937949</v>
@@ -856,8 +874,8 @@
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12"/>
-      <c r="E12">
-        <v>-0.67479332345374077</v>
+      <c r="E12" s="7">
+        <v>1</v>
       </c>
       <c r="F12">
         <v>0.26034080906357532</v>
@@ -904,8 +922,8 @@
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13"/>
-      <c r="E13">
-        <v>0.49384414750073502</v>
+      <c r="E13" s="7">
+        <v>1</v>
       </c>
       <c r="F13">
         <v>0.24513055045379509</v>
@@ -952,8 +970,8 @@
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14"/>
-      <c r="E14">
-        <v>-2.331289804635162</v>
+      <c r="E14" s="7">
+        <v>1</v>
       </c>
       <c r="F14">
         <v>0.27709363918691049</v>
@@ -1000,8 +1018,11 @@
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15"/>
-      <c r="F15">
-        <v>0.41166454153335891</v>
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.19989774593308229</v>
       </c>
       <c r="G15">
         <v>64652.34765625</v>
@@ -1045,8 +1066,8 @@
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16"/>
-      <c r="E16">
-        <v>0.1012182785987448</v>
+      <c r="E16" s="7">
+        <v>1</v>
       </c>
       <c r="F16">
         <v>0.28108542061363762</v>
@@ -1093,8 +1114,8 @@
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17"/>
-      <c r="E17">
-        <v>0.30837859715660021</v>
+      <c r="E17" s="7">
+        <v>1</v>
       </c>
       <c r="F17">
         <v>0.25217085626006208</v>
@@ -1141,6 +1162,9 @@
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18"/>
+      <c r="E18" s="7">
+        <v>1</v>
+      </c>
       <c r="F18">
         <v>0.40807420812348227</v>
       </c>
@@ -1186,8 +1210,8 @@
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19"/>
-      <c r="E19">
-        <v>-0.16165195591055759</v>
+      <c r="E19" s="7">
+        <v>1</v>
       </c>
       <c r="F19">
         <v>0.29992332214685652</v>
@@ -1234,8 +1258,11 @@
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20"/>
-      <c r="F20">
-        <v>0.38848091225668507</v>
+      <c r="E20" s="7">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.19989774593308229</v>
       </c>
       <c r="G20">
         <v>127367.4244791667</v>
@@ -1279,8 +1306,8 @@
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21"/>
-      <c r="E21">
-        <v>0.36346641878447061</v>
+      <c r="E21" s="7">
+        <v>1</v>
       </c>
       <c r="F21">
         <v>0.31894711834506612</v>
@@ -1327,8 +1354,8 @@
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22"/>
-      <c r="E22">
-        <v>-3.8539381780483849E-2</v>
+      <c r="E22" s="7">
+        <v>1</v>
       </c>
       <c r="F22">
         <v>0.2467442278578881</v>
@@ -1375,8 +1402,8 @@
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23"/>
-      <c r="E23">
-        <v>-6.3052126692845993</v>
+      <c r="E23" s="7">
+        <v>1</v>
       </c>
       <c r="F23">
         <v>0.19989774593308229</v>
@@ -1423,6 +1450,9 @@
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24"/>
+      <c r="E24" s="7">
+        <v>1</v>
+      </c>
       <c r="F24">
         <v>0.37123851052589307</v>
       </c>
@@ -1468,8 +1498,8 @@
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25"/>
-      <c r="E25">
-        <v>1.0322655981121871</v>
+      <c r="E25" s="7">
+        <v>1</v>
       </c>
       <c r="F25">
         <v>0.22016610698976649</v>
@@ -1516,8 +1546,8 @@
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26"/>
-      <c r="E26">
-        <v>0.50411229007769254</v>
+      <c r="E26" s="7">
+        <v>1</v>
       </c>
       <c r="F26">
         <v>0.2348484643843925</v>
@@ -1564,8 +1594,8 @@
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27"/>
-      <c r="E27">
-        <v>0.35109815309886572</v>
+      <c r="E27" s="7">
+        <v>1</v>
       </c>
       <c r="F27">
         <v>0.27537564685455518</v>
@@ -1612,8 +1642,8 @@
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28"/>
-      <c r="E28">
-        <v>0.2221758002751997</v>
+      <c r="E28" s="7">
+        <v>1</v>
       </c>
       <c r="F28">
         <v>0.2472292086238565</v>
@@ -1660,8 +1690,8 @@
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29"/>
-      <c r="E29">
-        <v>0.48903582059172501</v>
+      <c r="E29" s="7">
+        <v>1</v>
       </c>
       <c r="F29">
         <v>0.22762815482074911</v>
@@ -1708,8 +1738,8 @@
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30"/>
-      <c r="E30">
-        <v>-0.4474694506404292</v>
+      <c r="E30" s="7">
+        <v>1</v>
       </c>
       <c r="F30">
         <v>0.2958532303651879</v>
@@ -1756,8 +1786,8 @@
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31"/>
-      <c r="E31">
-        <v>0.54252962778000546</v>
+      <c r="E31" s="7">
+        <v>1</v>
       </c>
       <c r="F31">
         <v>0.27802630237239312</v>
@@ -1804,8 +1834,8 @@
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32"/>
-      <c r="E32">
-        <v>0.41749635238091048</v>
+      <c r="E32" s="7">
+        <v>1</v>
       </c>
       <c r="F32">
         <v>0.2384217728078602</v>
@@ -1852,8 +1882,8 @@
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B33"/>
-      <c r="E33">
-        <v>-2.0391507411769161</v>
+      <c r="E33" s="7">
+        <v>1</v>
       </c>
       <c r="F33">
         <v>0.26846662909875157</v>
@@ -1900,8 +1930,8 @@
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B34"/>
-      <c r="E34">
-        <v>-0.37383496989897202</v>
+      <c r="E34" s="7">
+        <v>1</v>
       </c>
       <c r="F34">
         <v>0.2493489630774661</v>
@@ -1948,8 +1978,8 @@
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B35"/>
-      <c r="E35">
-        <v>0.21962432469224821</v>
+      <c r="E35" s="7">
+        <v>1</v>
       </c>
       <c r="F35">
         <v>0.26923509500391862</v>
@@ -1996,6 +2026,9 @@
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B36"/>
+      <c r="E36" s="7">
+        <v>1</v>
+      </c>
       <c r="F36">
         <v>0.38085482849885621</v>
       </c>
@@ -2041,8 +2074,8 @@
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B37"/>
-      <c r="E37">
-        <v>0.46683062196448272</v>
+      <c r="E37" s="7">
+        <v>1</v>
       </c>
       <c r="F37">
         <v>0.24559671722267509</v>
@@ -2089,8 +2122,8 @@
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B38"/>
-      <c r="E38">
-        <v>0.1645052341466593</v>
+      <c r="E38" s="7">
+        <v>1</v>
       </c>
       <c r="F38">
         <v>0.2505542020434991</v>
@@ -2137,6 +2170,9 @@
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B39"/>
+      <c r="E39" s="7">
+        <v>1</v>
+      </c>
       <c r="F39">
         <v>0.2864196439515424</v>
       </c>
@@ -2182,6 +2218,9 @@
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B40"/>
+      <c r="E40" s="7">
+        <v>1</v>
+      </c>
       <c r="F40">
         <v>0.46078807541167049</v>
       </c>
@@ -2227,8 +2266,8 @@
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B41"/>
-      <c r="E41">
-        <v>-0.27406885611181719</v>
+      <c r="E41" s="7">
+        <v>1</v>
       </c>
       <c r="F41">
         <v>0.31704763084212939</v>
@@ -2275,8 +2314,8 @@
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B42"/>
-      <c r="E42">
-        <v>0.84381350972733782</v>
+      <c r="E42" s="7">
+        <v>1</v>
       </c>
       <c r="F42">
         <v>0.2456988205651997</v>
@@ -2323,6 +2362,9 @@
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B43"/>
+      <c r="E43" s="7">
+        <v>1</v>
+      </c>
       <c r="F43">
         <v>0.4660847591821119</v>
       </c>
@@ -2368,8 +2410,8 @@
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B44"/>
-      <c r="E44">
-        <v>0.67698941769673049</v>
+      <c r="E44" s="7">
+        <v>1</v>
       </c>
       <c r="F44">
         <v>0.32373122549823469</v>
@@ -2416,8 +2458,8 @@
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B45"/>
-      <c r="E45">
-        <v>-1.5104344295666441</v>
+      <c r="E45" s="7">
+        <v>1</v>
       </c>
       <c r="F45">
         <v>0.33023104154998573</v>
@@ -2464,8 +2506,8 @@
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B46"/>
-      <c r="E46">
-        <v>0.96456491965921198</v>
+      <c r="E46" s="7">
+        <v>1</v>
       </c>
       <c r="F46">
         <v>0.25054018285963398</v>
@@ -2512,8 +2554,8 @@
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B47"/>
-      <c r="E47">
-        <v>-2.8277215892127501</v>
+      <c r="E47" s="7">
+        <v>1</v>
       </c>
       <c r="F47">
         <v>0.31673209744389152</v>
@@ -2560,8 +2602,8 @@
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B48"/>
-      <c r="E48">
-        <v>-0.24396856618122839</v>
+      <c r="E48" s="7">
+        <v>1</v>
       </c>
       <c r="F48">
         <v>0.28363227047584361</v>
@@ -2608,8 +2650,8 @@
     </row>
     <row r="49" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B49"/>
-      <c r="E49">
-        <v>0.27960649785803271</v>
+      <c r="E49" s="7">
+        <v>1</v>
       </c>
       <c r="F49">
         <v>0.21051863896603551</v>
@@ -2656,8 +2698,8 @@
     </row>
     <row r="50" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B50"/>
-      <c r="E50">
-        <v>7.1307742385218996E-3</v>
+      <c r="E50" s="7">
+        <v>1</v>
       </c>
       <c r="F50">
         <v>0.23809954657747981</v>
@@ -2704,8 +2746,8 @@
     </row>
     <row r="51" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B51"/>
-      <c r="E51">
-        <v>-3.2046284823264062E-2</v>
+      <c r="E51" s="7">
+        <v>1</v>
       </c>
       <c r="F51">
         <v>0.28824300607158831</v>
@@ -2752,8 +2794,8 @@
     </row>
     <row r="52" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B52"/>
-      <c r="E52">
-        <v>-0.1797667096755495</v>
+      <c r="E52" s="7">
+        <v>1</v>
       </c>
       <c r="F52">
         <v>0.80190278849859842</v>
@@ -2800,8 +2842,8 @@
     </row>
     <row r="53" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B53"/>
-      <c r="E53">
-        <v>0.28573607920601207</v>
+      <c r="E53" s="7">
+        <v>1</v>
       </c>
       <c r="F53">
         <v>0.25074514172191348</v>
@@ -2848,6 +2890,9 @@
     </row>
     <row r="54" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B54"/>
+      <c r="E54" s="7">
+        <v>1</v>
+      </c>
       <c r="F54">
         <v>0.556564204099397</v>
       </c>
@@ -2893,11 +2938,11 @@
     </row>
     <row r="55" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B55"/>
-      <c r="E55">
-        <v>0.70651978871951793</v>
-      </c>
-      <c r="F55">
-        <v>0.32770509404290638</v>
+      <c r="E55" s="7">
+        <v>1</v>
+      </c>
+      <c r="F55" s="4">
+        <v>5.9699999999999996E-3</v>
       </c>
       <c r="G55">
         <v>17754.25</v>
@@ -2941,11 +2986,11 @@
     </row>
     <row r="56" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B56"/>
-      <c r="E56">
-        <v>0.46829616868475021</v>
-      </c>
-      <c r="F56">
-        <v>0.23971856940826181</v>
+      <c r="E56" s="7">
+        <v>1</v>
+      </c>
+      <c r="F56" s="4">
+        <v>8.9700000000000005E-3</v>
       </c>
       <c r="G56">
         <v>92979.869791666672</v>
@@ -2989,8 +3034,11 @@
     </row>
     <row r="57" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B57"/>
-      <c r="F57">
-        <v>0.2838332271636026</v>
+      <c r="E57" s="7">
+        <v>1</v>
+      </c>
+      <c r="F57" s="4">
+        <v>8.9700000000000005E-3</v>
       </c>
       <c r="G57">
         <v>127378.8515625</v>
@@ -3034,11 +3082,11 @@
     </row>
     <row r="58" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B58"/>
-      <c r="E58">
-        <v>0.57223998833963896</v>
-      </c>
-      <c r="F58">
-        <v>0.25816647478547361</v>
+      <c r="E58" s="7">
+        <v>1</v>
+      </c>
+      <c r="F58" s="4">
+        <v>5.9699999999999996E-3</v>
       </c>
       <c r="G58">
         <v>101079.8463541667</v>
@@ -3082,8 +3130,11 @@
     </row>
     <row r="59" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B59"/>
-      <c r="F59">
-        <v>0.28890920536277348</v>
+      <c r="E59" s="7">
+        <v>1</v>
+      </c>
+      <c r="F59" s="4">
+        <v>8.9700000000000005E-3</v>
       </c>
       <c r="G59">
         <v>104342.625</v>
@@ -3127,11 +3178,11 @@
     </row>
     <row r="60" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B60"/>
-      <c r="E60">
-        <v>0.1194385809734492</v>
-      </c>
-      <c r="F60">
-        <v>0.37900892508940071</v>
+      <c r="E60" s="7">
+        <v>1</v>
+      </c>
+      <c r="F60" s="4">
+        <v>8.9700000000000005E-3</v>
       </c>
       <c r="G60">
         <v>73252.286458333328</v>
@@ -3175,11 +3226,11 @@
     </row>
     <row r="61" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B61"/>
-      <c r="E61">
-        <v>3.6514503595221487E-2</v>
-      </c>
-      <c r="F61">
-        <v>0.3739542730692707</v>
+      <c r="E61" s="7">
+        <v>1</v>
+      </c>
+      <c r="F61" s="4">
+        <v>8.9700000000000005E-3</v>
       </c>
       <c r="G61">
         <v>103506.46875</v>
@@ -3223,11 +3274,11 @@
     </row>
     <row r="62" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B62"/>
-      <c r="E62">
-        <v>0.2698221529343664</v>
-      </c>
-      <c r="F62">
-        <v>0.39835559486982441</v>
+      <c r="E62" s="7">
+        <v>1</v>
+      </c>
+      <c r="F62" s="4">
+        <v>8.9700000000000005E-3</v>
       </c>
       <c r="G62">
         <v>77447.393229166672</v>
@@ -3271,8 +3322,8 @@
     </row>
     <row r="63" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B63"/>
-      <c r="E63">
-        <v>-3.6900576351846852</v>
+      <c r="E63" s="7">
+        <v>1</v>
       </c>
       <c r="F63">
         <v>0.45955638211321231</v>
@@ -3319,6 +3370,9 @@
     </row>
     <row r="64" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B64"/>
+      <c r="E64" s="7">
+        <v>1</v>
+      </c>
       <c r="F64">
         <v>0.41180104131605488</v>
       </c>
@@ -3364,8 +3418,8 @@
     </row>
     <row r="65" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B65"/>
-      <c r="E65">
-        <v>-0.2486452811624649</v>
+      <c r="E65" s="7">
+        <v>1</v>
       </c>
       <c r="F65">
         <v>0.27718571360760508</v>
@@ -3412,6 +3466,9 @@
     </row>
     <row r="66" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B66"/>
+      <c r="E66" s="7">
+        <v>1</v>
+      </c>
       <c r="F66">
         <v>0.40328882029662488</v>
       </c>
@@ -3457,6 +3514,9 @@
     </row>
     <row r="67" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B67"/>
+      <c r="E67" s="7">
+        <v>1</v>
+      </c>
       <c r="F67">
         <v>0.44714202830462713</v>
       </c>
@@ -3502,8 +3562,8 @@
     </row>
     <row r="68" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B68"/>
-      <c r="E68">
-        <v>0.32413279856003918</v>
+      <c r="E68" s="7">
+        <v>1</v>
       </c>
       <c r="F68">
         <v>0.25584814746389573</v>
@@ -3550,6 +3610,9 @@
     </row>
     <row r="69" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B69"/>
+      <c r="E69" s="7">
+        <v>1</v>
+      </c>
       <c r="F69">
         <v>0.24219873083901511</v>
       </c>
@@ -3595,6 +3658,9 @@
     </row>
     <row r="70" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B70"/>
+      <c r="E70" s="7">
+        <v>1</v>
+      </c>
       <c r="F70">
         <v>0.42561896147627248</v>
       </c>
@@ -3640,6 +3706,9 @@
     </row>
     <row r="71" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B71"/>
+      <c r="E71" s="7">
+        <v>1</v>
+      </c>
       <c r="F71">
         <v>0.36447888212420337</v>
       </c>
@@ -3685,8 +3754,8 @@
     </row>
     <row r="72" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B72"/>
-      <c r="E72">
-        <v>0.22403867272026201</v>
+      <c r="E72" s="7">
+        <v>1</v>
       </c>
       <c r="F72">
         <v>0.2463170835030104</v>
@@ -3733,8 +3802,8 @@
     </row>
     <row r="73" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B73"/>
-      <c r="E73">
-        <v>0.49292714951116301</v>
+      <c r="E73" s="7">
+        <v>1</v>
       </c>
       <c r="F73">
         <v>0.2418774777317122</v>
@@ -3781,8 +3850,8 @@
     </row>
     <row r="74" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B74"/>
-      <c r="E74">
-        <v>0.67970457592660471</v>
+      <c r="E74" s="7">
+        <v>1</v>
       </c>
       <c r="F74">
         <v>0.23197104760590101</v>
@@ -3829,8 +3898,8 @@
     </row>
     <row r="75" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B75"/>
-      <c r="E75">
-        <v>-0.1877155991631794</v>
+      <c r="E75" s="7">
+        <v>1</v>
       </c>
       <c r="F75">
         <v>0.27651733626747282</v>
@@ -3877,8 +3946,8 @@
     </row>
     <row r="76" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B76"/>
-      <c r="E76">
-        <v>0.5189627626982064</v>
+      <c r="E76" s="7">
+        <v>1</v>
       </c>
       <c r="F76">
         <v>0.29168664424046448</v>
@@ -3925,8 +3994,8 @@
     </row>
     <row r="77" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B77"/>
-      <c r="E77">
-        <v>1.5080947829606479</v>
+      <c r="E77" s="7">
+        <v>1</v>
       </c>
       <c r="F77">
         <v>0.28193936293021649</v>
@@ -3973,8 +4042,8 @@
     </row>
     <row r="78" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B78"/>
-      <c r="E78">
-        <v>0.65363332538555763</v>
+      <c r="E78" s="7">
+        <v>1</v>
       </c>
       <c r="F78">
         <v>0.28734111924559019</v>
@@ -4021,8 +4090,8 @@
     </row>
     <row r="79" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B79"/>
-      <c r="E79">
-        <v>-3.6425748458303211</v>
+      <c r="E79" s="7">
+        <v>1</v>
       </c>
       <c r="F79">
         <v>0.24830000582306039</v>
@@ -4069,8 +4138,8 @@
     </row>
     <row r="80" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B80"/>
-      <c r="E80">
-        <v>0.69710262763833708</v>
+      <c r="E80" s="7">
+        <v>1</v>
       </c>
       <c r="F80">
         <v>0.21828013526098819</v>
@@ -4117,8 +4186,8 @@
     </row>
     <row r="81" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B81"/>
-      <c r="E81">
-        <v>0.44728253874021262</v>
+      <c r="E81" s="7">
+        <v>1</v>
       </c>
       <c r="F81">
         <v>0.3536267152510042</v>
@@ -4165,6 +4234,9 @@
     </row>
     <row r="82" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B82"/>
+      <c r="E82" s="7">
+        <v>1</v>
+      </c>
       <c r="F82">
         <v>0.469653014660385</v>
       </c>
@@ -4210,6 +4282,9 @@
     </row>
     <row r="83" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B83"/>
+      <c r="E83" s="7">
+        <v>1</v>
+      </c>
       <c r="F83">
         <v>0.50511474546380652</v>
       </c>
@@ -4255,6 +4330,9 @@
     </row>
     <row r="84" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B84"/>
+      <c r="E84" s="7">
+        <v>1</v>
+      </c>
       <c r="F84">
         <v>0.25116615768966072</v>
       </c>
@@ -4300,8 +4378,8 @@
     </row>
     <row r="85" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B85"/>
-      <c r="E85">
-        <v>-1.8457986788970919</v>
+      <c r="E85" s="7">
+        <v>1</v>
       </c>
       <c r="F85">
         <v>0.36773933771617168</v>
@@ -4348,6 +4426,9 @@
     </row>
     <row r="86" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B86"/>
+      <c r="E86" s="7">
+        <v>1</v>
+      </c>
       <c r="F86">
         <v>0.37822469832522271</v>
       </c>
@@ -4393,6 +4474,9 @@
     </row>
     <row r="87" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B87"/>
+      <c r="E87" s="7">
+        <v>1</v>
+      </c>
       <c r="F87">
         <v>0.37173340221642498</v>
       </c>
@@ -4438,8 +4522,8 @@
     </row>
     <row r="88" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B88"/>
-      <c r="E88">
-        <v>0.63561942265891225</v>
+      <c r="E88" s="7">
+        <v>1</v>
       </c>
       <c r="F88">
         <v>0.30820537441807688</v>
@@ -4486,8 +4570,8 @@
     </row>
     <row r="89" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B89"/>
-      <c r="E89">
-        <v>-3.517018736813136</v>
+      <c r="E89" s="7">
+        <v>1</v>
       </c>
       <c r="F89">
         <v>0.42386855128556822</v>
@@ -4534,8 +4618,8 @@
     </row>
     <row r="90" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B90"/>
-      <c r="E90">
-        <v>0.83825273311664228</v>
+      <c r="E90" s="7">
+        <v>1</v>
       </c>
       <c r="F90">
         <v>0.31688465707594382</v>
@@ -4582,6 +4666,9 @@
     </row>
     <row r="91" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B91"/>
+      <c r="E91" s="7">
+        <v>1</v>
+      </c>
       <c r="F91">
         <v>0.44459438625197872</v>
       </c>
@@ -4627,6 +4714,9 @@
     </row>
     <row r="92" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B92"/>
+      <c r="E92" s="7">
+        <v>1</v>
+      </c>
       <c r="F92">
         <v>0.3731365766133769</v>
       </c>
@@ -4672,8 +4762,8 @@
     </row>
     <row r="93" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B93"/>
-      <c r="E93">
-        <v>-3.9730719241992558</v>
+      <c r="E93" s="7">
+        <v>1</v>
       </c>
       <c r="F93">
         <v>0.31374243083678921</v>
@@ -4720,6 +4810,9 @@
     </row>
     <row r="94" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B94"/>
+      <c r="E94" s="7">
+        <v>1</v>
+      </c>
       <c r="F94">
         <v>0.35228794936385921</v>
       </c>
@@ -4765,6 +4858,9 @@
     </row>
     <row r="95" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B95"/>
+      <c r="E95" s="7">
+        <v>1</v>
+      </c>
       <c r="F95">
         <v>0.37048325914454411</v>
       </c>
@@ -4810,6 +4906,9 @@
     </row>
     <row r="96" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B96"/>
+      <c r="E96" s="7">
+        <v>1</v>
+      </c>
       <c r="F96">
         <v>0.3483696564307131</v>
       </c>
@@ -4855,8 +4954,8 @@
     </row>
     <row r="97" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B97"/>
-      <c r="E97">
-        <v>-1.7364675753816801</v>
+      <c r="E97" s="7">
+        <v>1</v>
       </c>
       <c r="F97">
         <v>0.36428973446619722</v>
@@ -4903,8 +5002,8 @@
     </row>
     <row r="98" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B98"/>
-      <c r="E98">
-        <v>0.28347081031990201</v>
+      <c r="E98" s="7">
+        <v>1</v>
       </c>
       <c r="F98">
         <v>0.45997723071740071</v>
@@ -4951,6 +5050,9 @@
     </row>
     <row r="99" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B99"/>
+      <c r="E99" s="7">
+        <v>1</v>
+      </c>
       <c r="F99">
         <v>0.7960863327814286</v>
       </c>
@@ -4996,8 +5098,8 @@
     </row>
     <row r="100" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B100"/>
-      <c r="E100">
-        <v>0.15534584883295591</v>
+      <c r="E100" s="7">
+        <v>1</v>
       </c>
       <c r="F100">
         <v>0.47043998931431169</v>
@@ -5044,6 +5146,9 @@
     </row>
     <row r="101" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B101"/>
+      <c r="E101" s="7">
+        <v>1</v>
+      </c>
       <c r="F101">
         <v>0.43023736870046259</v>
       </c>
@@ -5089,8 +5194,8 @@
     </row>
     <row r="102" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B102"/>
-      <c r="E102">
-        <v>0.19621576699088311</v>
+      <c r="E102" s="7">
+        <v>1</v>
       </c>
       <c r="F102">
         <v>0.47904510060347288</v>
@@ -5137,6 +5242,9 @@
     </row>
     <row r="103" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B103"/>
+      <c r="E103" s="7">
+        <v>1</v>
+      </c>
       <c r="F103">
         <v>0.4577867749303699</v>
       </c>
@@ -5182,6 +5290,9 @@
     </row>
     <row r="104" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B104"/>
+      <c r="E104" s="7">
+        <v>1</v>
+      </c>
       <c r="F104">
         <v>0.689568308134203</v>
       </c>
@@ -5227,8 +5338,8 @@
     </row>
     <row r="105" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B105"/>
-      <c r="E105">
-        <v>0.28004272865462132</v>
+      <c r="E105" s="7">
+        <v>1</v>
       </c>
       <c r="F105">
         <v>0.45925688650456092</v>
@@ -5275,8 +5386,8 @@
     </row>
     <row r="106" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B106"/>
-      <c r="E106">
-        <v>-2.3184355691159348</v>
+      <c r="E106" s="7">
+        <v>1</v>
       </c>
       <c r="F106">
         <v>0.46156509518658773</v>
@@ -5314,8 +5425,8 @@
     </row>
     <row r="107" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B107"/>
-      <c r="E107">
-        <v>0.21780361867244991</v>
+      <c r="E107" s="7">
+        <v>1</v>
       </c>
       <c r="F107">
         <v>0.61673879707697821</v>
@@ -5362,8 +5473,8 @@
     </row>
     <row r="108" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B108"/>
-      <c r="E108">
-        <v>0.32324100793874683</v>
+      <c r="E108" s="7">
+        <v>1</v>
       </c>
       <c r="F108">
         <v>0.4990916173237952</v>
@@ -5410,8 +5521,8 @@
     </row>
     <row r="109" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B109"/>
-      <c r="E109">
-        <v>0.12847554532964819</v>
+      <c r="E109" s="7">
+        <v>1</v>
       </c>
       <c r="F109">
         <v>0.49961602789256038</v>
@@ -5458,8 +5569,8 @@
     </row>
     <row r="110" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B110"/>
-      <c r="E110">
-        <v>-0.16946254091484231</v>
+      <c r="E110" s="7">
+        <v>1</v>
       </c>
       <c r="F110">
         <v>0.56019646486439234</v>
@@ -5506,8 +5617,8 @@
     </row>
     <row r="111" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B111"/>
-      <c r="E111">
-        <v>0.21595314129623591</v>
+      <c r="E111" s="7">
+        <v>1</v>
       </c>
       <c r="F111">
         <v>0.59141640535043127</v>
@@ -5554,8 +5665,8 @@
     </row>
     <row r="112" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B112"/>
-      <c r="E112">
-        <v>0.14956004700419639</v>
+      <c r="E112" s="7">
+        <v>1</v>
       </c>
       <c r="F112">
         <v>0.4610229346136292</v>
@@ -5602,8 +5713,8 @@
     </row>
     <row r="113" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B113"/>
-      <c r="E113">
-        <v>0.28302894506797582</v>
+      <c r="E113" s="7">
+        <v>1</v>
       </c>
       <c r="F113">
         <v>0.76736499099460209</v>
@@ -5650,6 +5761,9 @@
     </row>
     <row r="114" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B114"/>
+      <c r="E114" s="7">
+        <v>1</v>
+      </c>
       <c r="F114">
         <v>0.81399461820064489</v>
       </c>
@@ -5695,8 +5809,8 @@
     </row>
     <row r="115" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B115"/>
-      <c r="E115">
-        <v>0.26709680354197529</v>
+      <c r="E115" s="7">
+        <v>1</v>
       </c>
       <c r="F115">
         <v>0.66823329651422769</v>
@@ -5743,8 +5857,8 @@
     </row>
     <row r="116" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B116"/>
-      <c r="E116">
-        <v>0.18249849895495099</v>
+      <c r="E116" s="7">
+        <v>1</v>
       </c>
       <c r="F116">
         <v>0.69558937742367566</v>
@@ -5791,8 +5905,8 @@
     </row>
     <row r="117" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B117"/>
-      <c r="E117">
-        <v>0.20631302165395149</v>
+      <c r="E117" s="7">
+        <v>1</v>
       </c>
       <c r="F117">
         <v>0.68166604467079239</v>
@@ -5839,6 +5953,9 @@
     </row>
     <row r="118" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B118"/>
+      <c r="E118" s="7">
+        <v>1</v>
+      </c>
       <c r="F118">
         <v>0.72593501225648893</v>
       </c>
@@ -5884,6 +6001,9 @@
     </row>
     <row r="119" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B119"/>
+      <c r="E119" s="7">
+        <v>1</v>
+      </c>
       <c r="F119">
         <v>0.75266974632859274</v>
       </c>
@@ -5929,8 +6049,8 @@
     </row>
     <row r="120" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B120"/>
-      <c r="E120">
-        <v>-4.6009256273507847E-2</v>
+      <c r="E120" s="7">
+        <v>1</v>
       </c>
       <c r="F120">
         <v>0.24517312943945399</v>
@@ -5977,8 +6097,8 @@
     </row>
     <row r="121" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B121"/>
-      <c r="E121">
-        <v>0.14264547462690999</v>
+      <c r="E121" s="7">
+        <v>1</v>
       </c>
       <c r="F121">
         <v>0.76464475599874926</v>
@@ -6025,8 +6145,8 @@
     </row>
     <row r="122" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B122"/>
-      <c r="E122">
-        <v>0.29247355416067677</v>
+      <c r="E122" s="7">
+        <v>1</v>
       </c>
       <c r="F122">
         <v>0.72224848873127601</v>
@@ -6073,6 +6193,9 @@
     </row>
     <row r="123" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B123"/>
+      <c r="E123" s="7">
+        <v>1</v>
+      </c>
       <c r="F123">
         <v>0.71602682886926117</v>
       </c>
@@ -6118,8 +6241,8 @@
     </row>
     <row r="124" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B124"/>
-      <c r="E124">
-        <v>0.23714632982192929</v>
+      <c r="E124" s="7">
+        <v>1</v>
       </c>
       <c r="F124">
         <v>0.77894474698709459</v>
@@ -6166,8 +6289,8 @@
     </row>
     <row r="125" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B125"/>
-      <c r="E125">
-        <v>0.30567618313934009</v>
+      <c r="E125" s="7">
+        <v>1</v>
       </c>
       <c r="F125">
         <v>0.75132421268808924</v>
@@ -6214,8 +6337,8 @@
     </row>
     <row r="126" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B126"/>
-      <c r="E126">
-        <v>0.38753075524089731</v>
+      <c r="E126" s="7">
+        <v>1</v>
       </c>
       <c r="F126">
         <v>0.73608130293941021</v>
@@ -6262,6 +6385,9 @@
     </row>
     <row r="127" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B127"/>
+      <c r="E127" s="7">
+        <v>1</v>
+      </c>
       <c r="F127">
         <v>0.7643942804168653</v>
       </c>
@@ -6307,8 +6433,8 @@
     </row>
     <row r="128" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B128"/>
-      <c r="E128">
-        <v>6.2182423739466357E-2</v>
+      <c r="E128" s="7">
+        <v>1</v>
       </c>
       <c r="F128">
         <v>0.67352508385655518</v>
@@ -6355,8 +6481,8 @@
     </row>
     <row r="129" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B129"/>
-      <c r="E129">
-        <v>0.17493772946268801</v>
+      <c r="E129" s="7">
+        <v>1</v>
       </c>
       <c r="F129">
         <v>0.78061635384335537</v>
@@ -6403,8 +6529,8 @@
     </row>
     <row r="130" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B130"/>
-      <c r="E130">
-        <v>0.42232060551211992</v>
+      <c r="E130" s="7">
+        <v>1</v>
       </c>
       <c r="F130">
         <v>0.63282262507279341</v>
@@ -6451,6 +6577,9 @@
     </row>
     <row r="131" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B131"/>
+      <c r="E131" s="7">
+        <v>1</v>
+      </c>
       <c r="F131">
         <v>0.68342418992219034</v>
       </c>
@@ -6496,8 +6625,8 @@
     </row>
     <row r="132" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B132"/>
-      <c r="E132">
-        <v>0.49674196059864439</v>
+      <c r="E132" s="7">
+        <v>1</v>
       </c>
       <c r="F132">
         <v>0.76755986733535142</v>
@@ -6544,8 +6673,8 @@
     </row>
     <row r="133" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B133"/>
-      <c r="E133">
-        <v>0.19084954534893039</v>
+      <c r="E133" s="7">
+        <v>1</v>
       </c>
       <c r="F133">
         <v>0.74400890252173202</v>
@@ -6592,8 +6721,8 @@
     </row>
     <row r="134" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B134"/>
-      <c r="E134">
-        <v>0.38430725455784448</v>
+      <c r="E134" s="7">
+        <v>1</v>
       </c>
       <c r="F134">
         <v>0.68859966364301572</v>
@@ -6640,8 +6769,8 @@
     </row>
     <row r="135" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B135"/>
-      <c r="E135">
-        <v>-7.2857741057548192E-2</v>
+      <c r="E135" s="7">
+        <v>1</v>
       </c>
       <c r="F135">
         <v>0.70485287721797174</v>
@@ -6688,8 +6817,8 @@
     </row>
     <row r="136" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B136"/>
-      <c r="E136">
-        <v>9.4515115923212559E-2</v>
+      <c r="E136" s="7">
+        <v>1</v>
       </c>
       <c r="F136">
         <v>0.64544916692070509</v>
@@ -6736,6 +6865,9 @@
     </row>
     <row r="137" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B137"/>
+      <c r="E137" s="7">
+        <v>1</v>
+      </c>
       <c r="F137">
         <v>0.68194806398684948</v>
       </c>
@@ -6781,6 +6913,9 @@
     </row>
     <row r="138" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B138"/>
+      <c r="E138" s="7">
+        <v>1</v>
+      </c>
       <c r="F138">
         <v>0.6907233410324487</v>
       </c>
@@ -6826,8 +6961,8 @@
     </row>
     <row r="139" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B139"/>
-      <c r="E139">
-        <v>0.16442745834343589</v>
+      <c r="E139" s="7">
+        <v>1</v>
       </c>
       <c r="F139">
         <v>0.71660984430496066</v>
@@ -6874,6 +7009,9 @@
     </row>
     <row r="140" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B140"/>
+      <c r="E140" s="7">
+        <v>1</v>
+      </c>
       <c r="F140">
         <v>0.68348220899824152</v>
       </c>
@@ -6919,8 +7057,8 @@
     </row>
     <row r="141" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B141"/>
-      <c r="E141">
-        <v>0.19622971408699599</v>
+      <c r="E141" s="7">
+        <v>1</v>
       </c>
       <c r="F141">
         <v>0.6631400287585888</v>
@@ -6967,8 +7105,8 @@
     </row>
     <row r="142" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B142"/>
-      <c r="E142">
-        <v>2.5806560925103469E-2</v>
+      <c r="E142" s="7">
+        <v>1</v>
       </c>
       <c r="F142">
         <v>0.64963280682408198</v>
@@ -7015,8 +7153,8 @@
     </row>
     <row r="143" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B143"/>
-      <c r="E143">
-        <v>0.34188413510576587</v>
+      <c r="E143" s="7">
+        <v>1</v>
       </c>
       <c r="F143">
         <v>0.72412739107788759</v>
@@ -7063,8 +7201,8 @@
     </row>
     <row r="144" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B144"/>
-      <c r="E144">
-        <v>0.32039780613058461</v>
+      <c r="E144" s="7">
+        <v>1</v>
       </c>
       <c r="F144">
         <v>0.700378703134659</v>
@@ -7111,8 +7249,8 @@
     </row>
     <row r="145" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B145"/>
-      <c r="E145">
-        <v>0.210710449484933</v>
+      <c r="E145" s="7">
+        <v>1</v>
       </c>
       <c r="F145">
         <v>0.72638515237161638</v>
@@ -7159,8 +7297,8 @@
     </row>
     <row r="146" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B146"/>
-      <c r="E146">
-        <v>0.18893063112698569</v>
+      <c r="E146" s="7">
+        <v>1</v>
       </c>
       <c r="F146">
         <v>0.70231068435225708</v>
@@ -7207,8 +7345,8 @@
     </row>
     <row r="147" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B147"/>
-      <c r="E147">
-        <v>0.1129224794088078</v>
+      <c r="E147" s="7">
+        <v>1</v>
       </c>
       <c r="F147">
         <v>0.72235036272581765</v>
@@ -7255,8 +7393,8 @@
     </row>
     <row r="148" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B148"/>
-      <c r="E148">
-        <v>0.16586343505835421</v>
+      <c r="E148" s="7">
+        <v>1</v>
       </c>
       <c r="F148">
         <v>0.71630000211107125</v>
@@ -7303,8 +7441,8 @@
     </row>
     <row r="149" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B149"/>
-      <c r="E149">
-        <v>1.518313460936997</v>
+      <c r="E149" s="7">
+        <v>1</v>
       </c>
       <c r="F149">
         <v>0.65576453760040943</v>
@@ -7351,8 +7489,8 @@
     </row>
     <row r="150" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B150"/>
-      <c r="E150">
-        <v>0.25539081994887219</v>
+      <c r="E150" s="7">
+        <v>1</v>
       </c>
       <c r="F150">
         <v>0.73089391146229665</v>
@@ -7399,6 +7537,9 @@
     </row>
     <row r="151" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B151"/>
+      <c r="E151" s="7">
+        <v>1</v>
+      </c>
       <c r="F151">
         <v>0.76272377608596631</v>
       </c>
@@ -7444,8 +7585,8 @@
     </row>
     <row r="152" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B152"/>
-      <c r="E152">
-        <v>0.1510998380848223</v>
+      <c r="E152" s="7">
+        <v>1</v>
       </c>
       <c r="F152">
         <v>0.74575128150289682</v>
@@ -7492,8 +7633,8 @@
     </row>
     <row r="153" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B153"/>
-      <c r="E153">
-        <v>0.1758157064635994</v>
+      <c r="E153" s="7">
+        <v>1</v>
       </c>
       <c r="F153">
         <v>0.7579159223376194</v>
@@ -7540,8 +7681,8 @@
     </row>
     <row r="154" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B154"/>
-      <c r="E154">
-        <v>0.32173556974591733</v>
+      <c r="E154" s="7">
+        <v>1</v>
       </c>
       <c r="F154">
         <v>0.68157179558640502</v>
@@ -7640,7 +7781,7 @@
         <v>0.26711526396073221</v>
       </c>
       <c r="F156">
-        <v>0.74481288780896993</v>
+        <v>8.9700000000000005E-3</v>
       </c>
       <c r="G156">
         <v>112987.0494791667</v>
@@ -7684,6 +7825,9 @@
     </row>
     <row r="157" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B157"/>
+      <c r="E157" s="7">
+        <v>1</v>
+      </c>
       <c r="F157">
         <v>0.55385191142596424</v>
       </c>
@@ -7729,8 +7873,11 @@
     </row>
     <row r="158" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B158"/>
-      <c r="F158">
-        <v>0.59709011586389604</v>
+      <c r="E158" s="7">
+        <v>1</v>
+      </c>
+      <c r="F158" s="4">
+        <v>8.9700000000000005E-3</v>
       </c>
       <c r="G158">
         <v>32427.697265625</v>
@@ -7774,8 +7921,11 @@
     </row>
     <row r="159" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B159"/>
-      <c r="F159">
-        <v>0.58228709070618989</v>
+      <c r="E159" s="7">
+        <v>1</v>
+      </c>
+      <c r="F159" s="4">
+        <v>8.9700000000000005E-3</v>
       </c>
       <c r="G159">
         <v>30772.481770833328</v>
@@ -7819,8 +7969,11 @@
     </row>
     <row r="160" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B160"/>
-      <c r="F160">
-        <v>0.44113834110715089</v>
+      <c r="E160" s="7">
+        <v>1</v>
+      </c>
+      <c r="F160" s="9">
+        <v>0</v>
       </c>
       <c r="G160">
         <v>32420.280598958328</v>
@@ -7864,8 +8017,11 @@
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B161"/>
-      <c r="F161">
-        <v>0.52681126230408049</v>
+      <c r="E161" s="7">
+        <v>1</v>
+      </c>
+      <c r="F161" s="9">
+        <v>0</v>
       </c>
       <c r="G161">
         <v>33700.8515625</v>
@@ -7909,8 +8065,11 @@
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B162"/>
-      <c r="F162">
-        <v>0.64830267404263375</v>
+      <c r="E162" s="7">
+        <v>1</v>
+      </c>
+      <c r="F162" s="9">
+        <v>0</v>
       </c>
       <c r="G162">
         <v>32245.8671875</v>
@@ -7954,8 +8113,11 @@
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B163"/>
-      <c r="F163">
-        <v>0.64263493091688606</v>
+      <c r="E163" s="7">
+        <v>1</v>
+      </c>
+      <c r="F163" s="9">
+        <v>0</v>
       </c>
       <c r="G163">
         <v>34563.783203125</v>
@@ -7999,8 +8161,11 @@
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B164"/>
-      <c r="F164">
-        <v>0.58084907688745735</v>
+      <c r="E164" s="7">
+        <v>1</v>
+      </c>
+      <c r="F164" s="9">
+        <v>0</v>
       </c>
       <c r="G164">
         <v>20159.03515625</v>
@@ -8044,8 +8209,11 @@
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B165"/>
-      <c r="F165">
-        <v>0.7002131715116261</v>
+      <c r="E165" s="7">
+        <v>1</v>
+      </c>
+      <c r="F165" s="9">
+        <v>0</v>
       </c>
       <c r="G165">
         <v>22306.805338541672</v>
@@ -8089,8 +8257,11 @@
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B166"/>
-      <c r="F166">
-        <v>0.71743987183459179</v>
+      <c r="E166" s="7">
+        <v>1</v>
+      </c>
+      <c r="F166" s="9">
+        <v>0</v>
       </c>
       <c r="G166">
         <v>21030.377604166672</v>
@@ -8134,11 +8305,11 @@
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B167"/>
-      <c r="E167">
-        <v>0.31200091529798912</v>
-      </c>
-      <c r="F167">
-        <v>0.68910573750030457</v>
+      <c r="E167" s="7">
+        <v>1</v>
+      </c>
+      <c r="F167" s="9">
+        <v>0</v>
       </c>
       <c r="G167">
         <v>235489.69270833331</v>
@@ -8183,7 +8354,7 @@
     <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B168"/>
       <c r="E168">
-        <v>-0.28607979338170592</v>
+        <v>0.98607979338170604</v>
       </c>
       <c r="F168">
         <v>0.51657832792962155</v>
@@ -8276,234 +8447,148 @@
         <v>374312.86458333331</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B171" s="5"/>
-      <c r="C171" s="6"/>
-      <c r="D171" s="6"/>
-      <c r="E171" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F171" s="6"/>
-      <c r="G171" s="6"/>
-      <c r="H171" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I171" s="6"/>
-      <c r="J171" s="6"/>
-      <c r="K171" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="L171" s="6"/>
-      <c r="M171" s="6"/>
-      <c r="N171" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O171" s="6"/>
-      <c r="P171" s="6"/>
-      <c r="Q171" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="R171" s="6"/>
-      <c r="S171" s="6"/>
-    </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B172" s="1"/>
-      <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
-      <c r="E172" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G172" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H172" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I172" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J172" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K172" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L172" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M172" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N172" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O172" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P172" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q172" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R172" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S172" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>8</v>
       </c>
-      <c r="B173"/>
-      <c r="C173" s="4"/>
-      <c r="E173" s="3">
-        <f>AVERAGE(E4:E80)</f>
-        <v>-0.1539028934435214</v>
-      </c>
-      <c r="F173">
-        <f>AVERAGE(F4:F80)</f>
-        <v>0.31375654448487766</v>
-      </c>
-      <c r="G173">
+      <c r="B170"/>
+      <c r="C170" s="3"/>
+      <c r="E170" s="8">
+        <f>AVERAGE(E4:E169)</f>
+        <v>0.98576179779996731</v>
+      </c>
+      <c r="F170" s="8">
+        <f>AVERAGE(F4:F169)</f>
+        <v>0.40725912164954076</v>
+      </c>
+      <c r="G170" s="8">
         <f>AVERAGE(G4:G169)</f>
         <v>84642.255755443664</v>
       </c>
-      <c r="H173">
-        <f>AVERAGE(H4:H160)</f>
-        <v>0.18696840207183188</v>
-      </c>
-      <c r="I173">
+      <c r="H170">
+        <f>AVERAGE(H4:H169)</f>
+        <v>0.17178930428908218</v>
+      </c>
+      <c r="I170">
         <f>AVERAGE(I4:I169)</f>
         <v>0.66490114664572586</v>
       </c>
-      <c r="J173">
+      <c r="J170">
         <f>AVERAGE(J4:J169)</f>
         <v>116536.83847107175</v>
       </c>
-      <c r="K173">
+      <c r="K170">
         <f>AVERAGE(K4:K160)</f>
         <v>0.20639684080149773</v>
       </c>
-      <c r="L173">
+      <c r="L170">
         <f>AVERAGE(L4:L169)</f>
         <v>0.63545308189057981</v>
       </c>
-      <c r="M173">
+      <c r="M170">
         <f>AVERAGE(M4:M169)</f>
         <v>120081.65419882657</v>
       </c>
-      <c r="N173">
+      <c r="N170">
         <f>AVERAGE(N4:N160)</f>
         <v>0.18323610104472782</v>
       </c>
-      <c r="O173">
+      <c r="O170">
         <f>AVERAGE(O4:O169)</f>
         <v>0.65913807140600778</v>
       </c>
-      <c r="P173">
+      <c r="P170">
         <f>AVERAGE(P4:P169)</f>
         <v>111225.45587427836</v>
       </c>
-      <c r="Q173">
+      <c r="Q170">
         <f>AVERAGE(Q4:Q169)</f>
         <v>0.18085108100931846</v>
       </c>
-      <c r="R173">
+      <c r="R170">
         <f>AVERAGE(R4:R169)</f>
         <v>0.66508523555571053</v>
       </c>
-      <c r="S173">
+      <c r="S170">
         <f>AVERAGE(S4:S169)</f>
         <v>111900.35726107554</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
         <v>9</v>
       </c>
-      <c r="B174"/>
-      <c r="C174" s="4"/>
-      <c r="E174">
-        <f>_xlfn.STDEV.S(E4:E80)</f>
-        <v>1.3361964428845108</v>
-      </c>
-      <c r="F174">
-        <f>_xlfn.STDEV.S(F4:F80)</f>
-        <v>9.6168042453972702E-2</v>
-      </c>
-      <c r="G174">
-        <f>_xlfn.STDEV.S(G4:G169)</f>
+      <c r="B171"/>
+      <c r="C171" s="3"/>
+      <c r="E171">
+        <f>_xlfn.STDEV.S(E4:E169)</f>
+        <v>0.10483227073020922</v>
+      </c>
+      <c r="F171" s="4">
+        <f t="shared" ref="F171:G171" si="0">_xlfn.STDEV.S(F4:F169)</f>
+        <v>0.23498306729879884</v>
+      </c>
+      <c r="G171" s="4">
+        <f t="shared" si="0"/>
         <v>39047.700883430181</v>
       </c>
-      <c r="H174">
+      <c r="H171">
         <f>_xlfn.STDEV.S(H4:H160)</f>
         <v>0.3260185252176459</v>
       </c>
-      <c r="I174">
+      <c r="I171">
         <f>_xlfn.STDEV.S(I4:I169)</f>
         <v>0.19830938563502101</v>
       </c>
-      <c r="J174">
+      <c r="J171">
         <f>_xlfn.STDEV.S(J4:J169)</f>
         <v>59435.97836048912</v>
       </c>
-      <c r="K174">
+      <c r="K171">
         <f>_xlfn.STDEV.S(K4:K160)</f>
         <v>0.33754153022814393</v>
       </c>
-      <c r="L174">
+      <c r="L171">
         <f>_xlfn.STDEV.S(L4:L169)</f>
         <v>0.1590775771306798</v>
       </c>
-      <c r="M174">
+      <c r="M171">
         <f>_xlfn.STDEV.S(M4:M169)</f>
         <v>61356.42341162447</v>
       </c>
-      <c r="N174">
+      <c r="N171">
         <f>_xlfn.STDEV.S(N4:N160)</f>
         <v>0.32715174089470583</v>
       </c>
-      <c r="O174">
+      <c r="O171">
         <f>_xlfn.STDEV.S(O4:O169)</f>
         <v>0.19720294231745167</v>
       </c>
-      <c r="P174">
+      <c r="P171">
         <f>_xlfn.STDEV.S(P4:P169)</f>
         <v>57958.424121066251</v>
       </c>
-      <c r="Q174">
+      <c r="Q171">
         <f>_xlfn.STDEV.S(Q4:Q169)</f>
         <v>0.43272532764702865</v>
       </c>
-      <c r="R174">
+      <c r="R171">
         <f>_xlfn.STDEV.S(R4:R169)</f>
         <v>0.19676160235421669</v>
       </c>
-      <c r="S174">
+      <c r="S171">
         <f>_xlfn.STDEV.S(S4:S169)</f>
         <v>57395.875772569532</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="Q171:S171"/>
+  <mergeCells count="6">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="B171:D171"/>
-    <mergeCell ref="E171:G171"/>
-    <mergeCell ref="H171:J171"/>
-    <mergeCell ref="K171:M171"/>
-    <mergeCell ref="N171:P171"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
